--- a/src/Stolons/wwwroot/bills/Producer/4/2016_20_4.xlsx
+++ b/src/Stolons/wwwroot/bills/Producer/4/2016_20_4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Producteur :</t>
   </si>
@@ -32,34 +32,40 @@
     <t>Semaine :</t>
   </si>
   <si>
+    <t>Pain complet</t>
+  </si>
+  <si>
+    <t>A la pièce</t>
+  </si>
+  <si>
+    <t>Quantité</t>
+  </si>
+  <si>
+    <t>Prix total</t>
+  </si>
+  <si>
+    <t>• 2</t>
+  </si>
+  <si>
+    <t>☐</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Tomates grappe</t>
+  </si>
+  <si>
+    <t>Au poids (Kg)</t>
+  </si>
+  <si>
+    <t>Radis</t>
+  </si>
+  <si>
+    <t>Salade</t>
+  </si>
+  <si>
     <t>Pomme de terre</t>
-  </si>
-  <si>
-    <t>Au poids (Kg)</t>
-  </si>
-  <si>
-    <t>Quantité</t>
-  </si>
-  <si>
-    <t>Prix total</t>
-  </si>
-  <si>
-    <t>• 2</t>
-  </si>
-  <si>
-    <t>☐</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Salade</t>
-  </si>
-  <si>
-    <t>A la pièce</t>
-  </si>
-  <si>
-    <t>Radis</t>
   </si>
   <si>
     <t>TOTAL :</t>
@@ -224,7 +230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0" view="pageLayout"/>
   </sheetViews>
@@ -280,7 +286,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -299,7 +305,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="13">
         <f>B9*C7</f>
@@ -327,7 +333,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -346,7 +352,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="13">
         <f>B14*C12</f>
@@ -371,7 +377,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C17" s="5">
         <v>4</v>
@@ -393,7 +399,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="13">
         <f>B19*C17</f>
@@ -414,11 +420,105 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="18">
-        <f>C10+C15+C20</f>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="12">
+        <v>2</v>
+      </c>
+      <c r="C24" s="13">
+        <f>B24*C22</f>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="14">
+        <f>SUBTOTAL(9,B24)</f>
+      </c>
+      <c r="C25" s="15">
+        <f>B25*C22</f>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="12">
+        <v>3</v>
+      </c>
+      <c r="C29" s="13">
+        <f>B29*C27</f>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="14">
+        <f>SUBTOTAL(9,B29)</f>
+      </c>
+      <c r="C30" s="15">
+        <f>B30*C27</f>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="18">
+        <f>C10+C15+C20+C25+C30</f>
       </c>
     </row>
   </sheetData>
@@ -426,6 +526,8 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>

--- a/src/Stolons/wwwroot/bills/Producer/4/2016_20_4.xlsx
+++ b/src/Stolons/wwwroot/bills/Producer/4/2016_20_4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Producteur :</t>
   </si>
@@ -32,40 +32,37 @@
     <t>Semaine :</t>
   </si>
   <si>
+    <t>Tomates grappe</t>
+  </si>
+  <si>
+    <t>Au poids (Kg)</t>
+  </si>
+  <si>
+    <t>Quantité</t>
+  </si>
+  <si>
+    <t>Prix total</t>
+  </si>
+  <si>
+    <t>• 2</t>
+  </si>
+  <si>
+    <t>☐</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
     <t>Pain complet</t>
   </si>
   <si>
     <t>A la pièce</t>
   </si>
   <si>
-    <t>Quantité</t>
-  </si>
-  <si>
-    <t>Prix total</t>
-  </si>
-  <si>
-    <t>• 2</t>
-  </si>
-  <si>
-    <t>☐</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Tomates grappe</t>
-  </si>
-  <si>
-    <t>Au poids (Kg)</t>
-  </si>
-  <si>
-    <t>Radis</t>
+    <t>Pomme de terre</t>
   </si>
   <si>
     <t>Salade</t>
-  </si>
-  <si>
-    <t>Pomme de terre</t>
   </si>
   <si>
     <t>TOTAL :</t>
@@ -230,7 +227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0" view="pageLayout"/>
   </sheetViews>
@@ -286,7 +283,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -305,7 +302,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="13">
         <f>B9*C7</f>
@@ -333,7 +330,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -352,7 +349,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="13">
         <f>B14*C12</f>
@@ -380,7 +377,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -399,7 +396,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="13">
         <f>B19*C17</f>
@@ -424,7 +421,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
@@ -467,58 +464,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="s">
+      <c r="B27" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="12">
-        <v>3</v>
-      </c>
-      <c r="C29" s="13">
-        <f>B29*C27</f>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="14">
-        <f>SUBTOTAL(9,B29)</f>
-      </c>
-      <c r="C30" s="15">
-        <f>B30*C27</f>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="18">
-        <f>C10+C15+C20+C25+C30</f>
+      <c r="C27" s="18">
+        <f>C10+C15+C20+C25</f>
       </c>
     </row>
   </sheetData>
@@ -527,7 +477,6 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>
